--- a/Raw_data_cleaned/Burley/Burley21.xlsx
+++ b/Raw_data_cleaned/Burley/Burley21.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8FBF67-833D-43DD-814A-8F4E03B40212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{835FA037-E347-4FD9-8A8B-ACBABB639536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5230" yWindow="4070" windowWidth="28740" windowHeight="15370" xr2:uid="{C635D291-D2F2-4AEE-9E93-BFE1BD30F625}"/>
+    <workbookView xWindow="8360" yWindow="2250" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,15 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,18 +69,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{01B03BF0-4897-4FB2-804D-FE6917B7D204}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,7 +110,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +122,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,23 +169,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,23 +204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,11 +355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56581135-BFA2-4C13-BE03-D6443D913B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="I399" sqref="I399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Raw_data_cleaned/Burley/Burley21.xlsx
+++ b/Raw_data_cleaned/Burley/Burley21.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8FBF67-833D-43DD-814A-8F4E03B40212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7F5762-145D-664D-B650-F490468E2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5230" yWindow="4070" windowWidth="28740" windowHeight="15370" xr2:uid="{C635D291-D2F2-4AEE-9E93-BFE1BD30F625}"/>
+    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,19 +37,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,18 +69,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{01B03BF0-4897-4FB2-804D-FE6917B7D204}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,7 +110,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +122,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,23 +169,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,23 +204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56581135-BFA2-4C13-BE03-D6443D913B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
   <dimension ref="A1:BE394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="32" workbookViewId="0">
+      <selection sqref="A1:BE394"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.934E-3</v>
       </c>
@@ -764,7 +710,7 @@
         <v>260.90418471110615</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>4.5900000000000003E-3</v>
       </c>
@@ -937,7 +883,7 @@
         <v>257.22582145092616</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5.2459999999999998E-3</v>
       </c>
@@ -1110,7 +1056,7 @@
         <v>253.75645972915311</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5.9020000000000001E-3</v>
       </c>
@@ -1283,7 +1229,7 @@
         <v>250.46725322203196</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6.5570000000000003E-3</v>
       </c>
@@ -1456,7 +1402,7 @@
         <v>247.34064997058914</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9.8359999999999993E-3</v>
       </c>
@@ -1629,7 +1575,7 @@
         <v>233.53850286248218</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1.0492E-2</v>
       </c>
@@ -1802,7 +1748,7 @@
         <v>231.07498918964779</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1.1148E-2</v>
       </c>
@@ -1975,7 +1921,7 @@
         <v>228.6931662647024</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1.1802999999999999E-2</v>
       </c>
@@ -2148,7 +2094,7 @@
         <v>226.3908253731538</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1.2459E-2</v>
       </c>
@@ -2321,7 +2267,7 @@
         <v>224.15591944509424</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1.3115E-2</v>
       </c>
@@ -2494,7 +2440,7 @@
         <v>221.98753887535111</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1.3769999999999999E-2</v>
       </c>
@@ -2667,7 +2613,7 @@
         <v>219.88482742440664</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1.4426E-2</v>
       </c>
@@ -2840,7 +2786,7 @@
         <v>217.83774235562166</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1.7704999999999999E-2</v>
       </c>
@@ -3013,7 +2959,7 @@
         <v>208.38282237049609</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1.8360999999999999E-2</v>
       </c>
@@ -3186,7 +3132,7 @@
         <v>206.6290990798951</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1.9016000000000002E-2</v>
       </c>
@@ -3359,7 +3305,7 @@
         <v>204.91892139818393</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2.2294999999999999E-2</v>
       </c>
@@ -3532,7 +3478,7 @@
         <v>196.91194476961545</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2.9508E-2</v>
       </c>
@@ -3705,7 +3651,7 @@
         <v>181.90997300593963</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.082E-2</v>
       </c>
@@ -3878,7 +3824,7 @@
         <v>179.49135132965583</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.4098000000000003E-2</v>
       </c>
@@ -4051,7 +3997,7 @@
         <v>173.7910496716527</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.5409999999999997E-2</v>
       </c>
@@ -4224,7 +4170,7 @@
         <v>171.63498932142753</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.6720999999999997E-2</v>
       </c>
@@ -4397,7 +4343,7 @@
         <v>169.54631665860219</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.8032999999999997E-2</v>
       </c>
@@ -4570,7 +4516,7 @@
         <v>167.51834984101509</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.04</v>
       </c>
@@ -4743,7 +4689,7 @@
         <v>164.58772778772627</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.0655999999999998E-2</v>
       </c>
@@ -4916,7 +4862,7 @@
         <v>163.6381701207699</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>4.1966999999999997E-2</v>
       </c>
@@ -5089,7 +5035,7 @@
         <v>161.78013755147742</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>4.2623000000000001E-2</v>
       </c>
@@ -5262,7 +5208,7 @@
         <v>160.86960570188927</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>4.3278999999999998E-2</v>
       </c>
@@ -5435,7 +5381,7 @@
         <v>159.97146808243201</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>4.3934000000000001E-2</v>
       </c>
@@ -5608,7 +5554,7 @@
         <v>159.08677388429831</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4.5246000000000001E-2</v>
       </c>
@@ -5781,7 +5727,7 @@
         <v>157.34985320304699</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>4.6557000000000001E-2</v>
       </c>
@@ -5954,7 +5900,7 @@
         <v>155.65935026454466</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>4.7212999999999998E-2</v>
       </c>
@@ -6127,7 +6073,7 @@
         <v>154.82974424765479</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>4.7869000000000002E-2</v>
       </c>
@@ -6300,7 +6246,7 @@
         <v>154.01068385963353</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>4.8524999999999999E-2</v>
       </c>
@@ -6473,7 +6419,7 @@
         <v>153.20193869542541</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>4.9180000000000001E-2</v>
       </c>
@@ -6646,7 +6592,7 @@
         <v>152.40449559867568</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>4.9835999999999998E-2</v>
       </c>
@@ -6819,7 +6765,7 @@
         <v>151.61570389812718</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>5.1147999999999999E-2</v>
       </c>
@@ -6992,7 +6938,7 @@
         <v>150.06691942619034</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5.1803000000000002E-2</v>
       </c>
@@ -7165,7 +7111,7 @@
         <v>149.3076794429528</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>5.2458999999999999E-2</v>
       </c>
@@ -7338,7 +7284,7 @@
         <v>148.55635078842141</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>5.5081999999999999E-2</v>
       </c>
@@ -7511,7 +7457,7 @@
         <v>145.63927937481708</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>5.6392999999999999E-2</v>
       </c>
@@ -7684,7 +7630,7 @@
         <v>144.23114444413315</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>5.7704999999999999E-2</v>
       </c>
@@ -7857,7 +7803,7 @@
         <v>142.85349205921162</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>5.8361000000000003E-2</v>
       </c>
@@ -8030,7 +7976,7 @@
         <v>142.17612979444192</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>5.9015999999999999E-2</v>
       </c>
@@ -8203,7 +8149,7 @@
         <v>141.50723427222715</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>5.9672000000000003E-2</v>
       </c>
@@ -8376,7 +8322,7 @@
         <v>140.84462450074341</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>6.1638999999999999E-2</v>
       </c>
@@ -8549,7 +8495,7 @@
         <v>138.90031125409166</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>6.6229999999999997E-2</v>
       </c>
@@ -8722,7 +8668,7 @@
         <v>134.59451280816197</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>6.6885E-2</v>
       </c>
@@ -8895,7 +8841,7 @@
         <v>134.00504137429022</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>6.7541000000000004E-2</v>
       </c>
@@ -9068,7 +9014,7 @@
         <v>133.42057050258191</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>6.8196999999999994E-2</v>
       </c>
@@ -9241,7 +9187,7 @@
         <v>132.84190557981006</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>6.8851999999999997E-2</v>
       </c>
@@ -9414,7 +9360,7 @@
         <v>132.26981898311172</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>6.9508E-2</v>
       </c>
@@ -9587,7 +9533,7 @@
         <v>131.70246957878567</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>7.0819999999999994E-2</v>
       </c>
@@ -9760,7 +9706,7 @@
         <v>130.58424899340113</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>7.2131000000000001E-2</v>
       </c>
@@ -9933,7 +9879,7 @@
         <v>129.48823773199587</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>7.3442999999999994E-2</v>
       </c>
@@ -10106,7 +10052,7 @@
         <v>128.41208493147258</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>7.5410000000000005E-2</v>
       </c>
@@ -10279,7 +10225,7 @@
         <v>126.83605218095919</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>7.8033000000000005E-2</v>
       </c>
@@ -10452,7 +10398,7 @@
         <v>124.80099761350924</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>8.0656000000000005E-2</v>
       </c>
@@ -10625,7 +10571,7 @@
         <v>122.83791590066777</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>8.1310999999999994E-2</v>
       </c>
@@ -10798,7 +10744,7 @@
         <v>122.35844279128737</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>8.7869000000000003E-2</v>
       </c>
@@ -10971,7 +10917,7 @@
         <v>117.77794509941232</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>8.9179999999999995E-2</v>
       </c>
@@ -11144,7 +11090,7 @@
         <v>116.90741587351788</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>9.4425999999999996E-2</v>
       </c>
@@ -11317,7 +11263,7 @@
         <v>113.56134684655156</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>9.8361000000000004E-2</v>
       </c>
@@ -11490,7 +11436,7 @@
         <v>111.18599155080838</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0.11475399999999999</v>
       </c>
@@ -11663,7 +11609,7 @@
         <v>102.34781717859751</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0.120656</v>
       </c>
@@ -11836,7 +11782,7 @@
         <v>99.522813706136262</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.12590199999999999</v>
       </c>
@@ -12009,7 +11955,7 @@
         <v>97.147253013686921</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0.12786900000000001</v>
       </c>
@@ -12182,7 +12128,7 @@
         <v>96.287145416447814</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.12917999999999999</v>
       </c>
@@ -12355,7 +12301,7 @@
         <v>95.722751793020294</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.13442599999999999</v>
       </c>
@@ -12528,7 +12474,7 @@
         <v>93.532256675508933</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.13508200000000001</v>
       </c>
@@ -12701,7 +12647,7 @@
         <v>93.265713446761978</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0.13770499999999999</v>
       </c>
@@ -12874,7 +12820,7 @@
         <v>92.215642665796977</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.139016</v>
       </c>
@@ -13047,7 +12993,7 @@
         <v>91.700009989025887</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0.14163899999999999</v>
       </c>
@@ -13220,7 +13166,7 @@
         <v>90.686186557116557</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.14295099999999999</v>
       </c>
@@ -13393,7 +13339,7 @@
         <v>90.187783023006574</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0.14360700000000001</v>
       </c>
@@ -13566,7 +13512,7 @@
         <v>89.940710042558734</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0.144262</v>
       </c>
@@ -13739,7 +13685,7 @@
         <v>89.695412201231463</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0.14491799999999999</v>
       </c>
@@ -13912,7 +13858,7 @@
         <v>89.451127608087901</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0.14623</v>
       </c>
@@ -14085,7 +14031,7 @@
         <v>88.966674065188542</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0.15278700000000001</v>
       </c>
@@ -14258,7 +14204,7 @@
         <v>86.624603185960282</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0.15409800000000001</v>
       </c>
@@ -14431,7 +14377,7 @@
         <v>86.171495061437426</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0.154754</v>
       </c>
@@ -14604,7 +14550,7 @@
         <v>85.946593239960549</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0.16983599999999999</v>
       </c>
@@ -14777,7 +14723,7 @@
         <v>81.087921853128222</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0.170492</v>
       </c>
@@ -14950,7 +14896,7 @@
         <v>80.889246743449704</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.172459</v>
       </c>
@@ -15123,7 +15069,7 @@
         <v>80.299393328503641</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.17377000000000001</v>
       </c>
@@ -15296,7 +15242,7 @@
         <v>79.911068678634749</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0.174426</v>
       </c>
@@ -15469,7 +15415,7 @@
         <v>79.718179974102028</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0.17508199999999999</v>
       </c>
@@ -15642,7 +15588,7 @@
         <v>79.526229610895129</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0.17573800000000001</v>
       </c>
@@ -15815,7 +15761,7 @@
         <v>79.335210221665221</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0.17639299999999999</v>
       </c>
@@ -15988,7 +15934,7 @@
         <v>79.1454036003054</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0.17704900000000001</v>
       </c>
@@ -16161,7 +16107,7 @@
         <v>78.956222986226862</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0.177705</v>
       </c>
@@ -16334,7 +16280,7 @@
         <v>78.767951733382944</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.17836099999999999</v>
       </c>
@@ -16507,7 +16453,7 @@
         <v>78.580582789595169</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.179672</v>
       </c>
@@ -16680,7 +16626,7 @@
         <v>78.208806231441159</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0.18098400000000001</v>
       </c>
@@ -16853,7 +16799,7 @@
         <v>77.840271266795128</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0.18229500000000001</v>
       </c>
@@ -17026,7 +16972,7 @@
         <v>77.475486027752552</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0.182951</v>
       </c>
@@ -17199,7 +17145,7 @@
         <v>77.294239450029693</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0.18426200000000001</v>
       </c>
@@ -17372,7 +17318,7 @@
         <v>76.934558657680668</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0.186885</v>
       </c>
@@ -17545,7 +17491,7 @@
         <v>76.224894125086223</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0.188197</v>
       </c>
@@ -17718,7 +17664,7 @@
         <v>75.874816736520486</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0.18950800000000001</v>
       </c>
@@ -17891,7 +17837,7 @@
         <v>75.528199316677956</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0.190164</v>
       </c>
@@ -18064,7 +18010,7 @@
         <v>75.355941921020332</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0.19147500000000001</v>
       </c>
@@ -18237,7 +18183,7 @@
         <v>75.014026129154644</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0.19541</v>
       </c>
@@ -18410,7 +18356,7 @@
         <v>74.006056606916673</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0.19803299999999999</v>
       </c>
@@ -18583,7 +18529,7 @@
         <v>73.348977008048678</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0.20196700000000001</v>
       </c>
@@ -18756,7 +18702,7 @@
         <v>72.384868864687164</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0.202623</v>
       </c>
@@ -18929,7 +18875,7 @@
         <v>72.226534997097389</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0.20524600000000001</v>
       </c>
@@ -19102,7 +19048,7 @@
         <v>71.600213392123408</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0.205902</v>
       </c>
@@ -19275,7 +19221,7 @@
         <v>71.445243770628807</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0.20983599999999999</v>
       </c>
@@ -19448,7 +19394,7 @@
         <v>70.529573195114352</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0.211148</v>
       </c>
@@ -19621,7 +19567,7 @@
         <v>70.229301499341389</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0.21376999999999999</v>
       </c>
@@ -19794,7 +19740,7 @@
         <v>69.636665424749665</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0.22098400000000001</v>
       </c>
@@ -19967,7 +19913,7 @@
         <v>68.055485005459303</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0.239344</v>
       </c>
@@ -20140,7 +20086,7 @@
         <v>64.329364870024264</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0.24393400000000001</v>
       </c>
@@ -20313,7 +20259,7 @@
         <v>63.458563138031188</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0.24721299999999999</v>
       </c>
@@ -20486,7 +20432,7 @@
         <v>62.850184181475463</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0.24786900000000001</v>
       </c>
@@ -20659,7 +20605,7 @@
         <v>62.729807330335682</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0.24918000000000001</v>
       </c>
@@ -20832,7 +20778,7 @@
         <v>62.490551015496742</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0.25049199999999999</v>
       </c>
@@ -21005,7 +20951,7 @@
         <v>62.252848605449763</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0.25114799999999998</v>
       </c>
@@ -21178,7 +21124,7 @@
         <v>62.13464249842783</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0.251803</v>
       </c>
@@ -21351,7 +21297,7 @@
         <v>62.017042353492407</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0.25311499999999998</v>
       </c>
@@ -21524,7 +21470,7 @@
         <v>61.782752727963548</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0.25442599999999999</v>
       </c>
@@ -21697,7 +21643,7 @@
         <v>61.550317415839935</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0.25508199999999998</v>
       </c>
@@ -21870,7 +21816,7 @@
         <v>61.434633910841931</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0.25639299999999998</v>
       </c>
@@ -22043,7 +21989,7 @@
         <v>61.204676070493726</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0.25836100000000001</v>
       </c>
@@ -22216,7 +22162,7 @@
         <v>60.862526268288583</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0.260328</v>
       </c>
@@ -22389,7 +22335,7 @@
         <v>60.524153797043191</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0.26163900000000001</v>
       </c>
@@ -22562,7 +22508,7 @@
         <v>60.300600292625354</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0.26360699999999998</v>
       </c>
@@ -22735,7 +22681,7 @@
         <v>59.967929657367627</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0.264262</v>
       </c>
@@ -22908,7 +22854,7 @@
         <v>59.857976058070768</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0.26557399999999998</v>
       </c>
@@ -23081,7 +23027,7 @@
         <v>59.638873334356866</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0.27409800000000001</v>
       </c>
@@ -23254,7 +23200,7 @@
         <v>58.25135095772827</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0.27672099999999999</v>
       </c>
@@ -23427,7 +23373,7 @@
         <v>57.836504846459597</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0.27868900000000002</v>
       </c>
@@ -23600,7 +23546,7 @@
         <v>57.528864630549641</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0.27934399999999998</v>
       </c>
@@ -23773,7 +23719,7 @@
         <v>57.427151535992628</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0.28917999999999999</v>
       </c>
@@ -23946,7 +23892,7 @@
         <v>55.939100531502795</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0.29049199999999997</v>
       </c>
@@ -24119,7 +24065,7 @@
         <v>55.746019453708008</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0.29245900000000002</v>
       </c>
@@ -24292,7 +24238,7 @@
         <v>55.458848125368569</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0.29311500000000001</v>
       </c>
@@ -24465,7 +24411,7 @@
         <v>55.363683873564831</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0.29376999999999998</v>
       </c>
@@ -24638,7 +24584,7 @@
         <v>55.268965641230402</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0.297705</v>
       </c>
@@ -24811,7 +24757,7 @@
         <v>54.706178671062524</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0.299016</v>
       </c>
@@ -24984,7 +24930,7 @@
         <v>54.521020879620046</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0.30032799999999998</v>
       </c>
@@ -25157,7 +25103,7 @@
         <v>54.336874569698459</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0.30163899999999999</v>
       </c>
@@ -25330,7 +25276,7 @@
         <v>54.154009040702043</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0.30229499999999998</v>
       </c>
@@ -25503,7 +25449,7 @@
         <v>54.062930938447714</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0.30295100000000003</v>
       </c>
@@ -25676,7 +25622,7 @@
         <v>53.972134054414987</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0.30557400000000001</v>
       </c>
@@ -25849,7 +25795,7 @@
         <v>53.611867640987022</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0.30688500000000002</v>
       </c>
@@ -26022,7 +25968,7 @@
         <v>53.433452756843586</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0.30950800000000001</v>
       </c>
@@ -26195,7 +26141,7 @@
         <v>53.079734136799566</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0.310164</v>
       </c>
@@ -26368,7 +26314,7 @@
         <v>52.991940035350289</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0.31278699999999998</v>
       </c>
@@ -26541,7 +26487,7 @@
         <v>52.643534960770161</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0.31409799999999999</v>
       </c>
@@ -26714,7 +26660,7 @@
         <v>52.470962761204937</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0.31672099999999997</v>
       </c>
@@ -26887,7 +26833,7 @@
         <v>52.128766232963891</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0.31803300000000001</v>
       </c>
@@ -27060,7 +27006,7 @@
         <v>51.959124030045068</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0.32</v>
       </c>
@@ -27233,7 +27179,7 @@
         <v>51.70666374262057</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0.320656</v>
       </c>
@@ -27406,7 +27352,7 @@
         <v>51.622962708848</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0.321967</v>
       </c>
@@ -27579,7 +27525,7 @@
         <v>51.456423396429209</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0.32327899999999998</v>
       </c>
@@ -27752,7 +27698,7 @@
         <v>51.290730515218165</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0.32458999999999999</v>
       </c>
@@ -27925,7 +27871,7 @@
         <v>51.126127607319212</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>0.32524599999999998</v>
       </c>
@@ -28098,7 +28044,7 @@
         <v>51.04412219135704</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>0.32590200000000003</v>
       </c>
@@ -28271,7 +28217,7 @@
         <v>50.96235463028551</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>0.32655699999999999</v>
       </c>
@@ -28444,7 +28390,7 @@
         <v>50.880947929821268</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>0.32786900000000002</v>
       </c>
@@ -28617,7 +28563,7 @@
         <v>50.718591507106488</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>0.32917999999999997</v>
       </c>
@@ -28790,7 +28736,7 @@
         <v>50.557291775658562</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>0.33049200000000001</v>
       </c>
@@ -28963,7 +28909,7 @@
         <v>50.396794122566867</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>0.331148</v>
       </c>
@@ -29136,7 +29082,7 @@
         <v>50.316889705353368</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>0.33180300000000001</v>
       </c>
@@ -29309,7 +29255,7 @@
         <v>50.237334783350626</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>0.33311499999999999</v>
       </c>
@@ -29482,7 +29428,7 @@
         <v>50.07866216601294</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>0.33377000000000001</v>
       </c>
@@ -29655,7 +29601,7 @@
         <v>49.999784298075234</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>0.334426</v>
       </c>
@@ -29828,7 +29774,7 @@
         <v>49.921009933673055</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>0.33508199999999999</v>
       </c>
@@ -30001,7 +29947,7 @@
         <v>49.84245865567339</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>0.33573799999999998</v>
       </c>
@@ -30174,7 +30120,7 @@
         <v>49.764129457700257</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>0.336393</v>
       </c>
@@ -30347,7 +30293,7 @@
         <v>49.68614023914278</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>0.33901599999999998</v>
       </c>
@@ -30520,7 +30466,7 @@
         <v>49.376015019767401</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>0.34229500000000002</v>
       </c>
@@ -30693,7 +30639,7 @@
         <v>48.99318270870581</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>0.34426200000000001</v>
       </c>
@@ -30866,7 +30812,7 @@
         <v>48.766072360500381</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>0.34622999999999998</v>
       </c>
@@ -31039,7 +30985,7 @@
         <v>48.540723786433098</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>0.34819699999999998</v>
       </c>
@@ -31212,7 +31158,7 @@
         <v>48.31734140100675</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>0.35016399999999998</v>
       </c>
@@ -31385,7 +31331,7 @@
         <v>48.095786077908869</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>0.35082000000000002</v>
       </c>
@@ -31558,7 +31504,7 @@
         <v>48.022298916366026</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>0.35344300000000001</v>
       </c>
@@ -31731,7 +31677,7 @@
         <v>47.730449354943985</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>0.35475400000000001</v>
       </c>
@@ -31904,7 +31850,7 @@
         <v>47.585759798598112</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>0.35606599999999999</v>
       </c>
@@ -32077,7 +32023,7 @@
         <v>47.441737979622729</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>0.35672100000000001</v>
       </c>
@@ -32250,7 +32196,7 @@
         <v>47.370126074312211</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>0.35868899999999998</v>
       </c>
@@ -32423,7 +32369,7 @@
         <v>47.156111339470733</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>0.37114799999999998</v>
       </c>
@@ -32596,7 +32542,7 @@
         <v>45.839966767392859</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>0.380328</v>
       </c>
@@ -32769,7 +32715,7 @@
         <v>44.910938339143286</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>0.38295099999999999</v>
       </c>
@@ -32942,7 +32888,7 @@
         <v>44.65151977279185</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>0.39147500000000002</v>
       </c>
@@ -33115,7 +33061,7 @@
         <v>43.82624313979214</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>0.39344299999999999</v>
       </c>
@@ -33288,7 +33234,7 @@
         <v>43.639463661876128</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>0.394098</v>
       </c>
@@ -33461,7 +33407,7 @@
         <v>43.577604522106355</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>0.39803300000000003</v>
       </c>
@@ -33634,7 +33580,7 @@
         <v>43.209150450859831</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>0.40065600000000001</v>
       </c>
@@ -33807,7 +33753,7 @@
         <v>42.966524737862798</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0.403279</v>
       </c>
@@ -33980,7 +33926,7 @@
         <v>42.72623945788601</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0.40393400000000002</v>
       </c>
@@ -34153,7 +34099,7 @@
         <v>42.666597838000527</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>0.40459000000000001</v>
       </c>
@@ -34326,7 +34272,7 @@
         <v>42.60700865281116</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>0.405246</v>
       </c>
@@ -34499,7 +34445,7 @@
         <v>42.547562519487329</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>0.40917999999999999</v>
       </c>
@@ -34672,7 +34618,7 @@
         <v>42.194037899127807</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>0.41049200000000002</v>
       </c>
@@ -34845,7 +34791,7 @@
         <v>42.077256043631415</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>0.41245900000000002</v>
       </c>
@@ -35018,7 +34964,7 @@
         <v>41.90320697121836</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>0.41377000000000003</v>
       </c>
@@ -35191,7 +35137,7 @@
         <v>41.787887135174955</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>0.419016</v>
       </c>
@@ -35364,7 +35310,7 @@
         <v>41.331813932931418</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>0.41967199999999999</v>
       </c>
@@ -35537,7 +35483,7 @@
         <v>41.275380608907852</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>0.42163899999999999</v>
       </c>
@@ -35710,7 +35656,7 @@
         <v>41.106951227427139</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>0.42426199999999997</v>
       </c>
@@ -35883,7 +35829,7 @@
         <v>40.884163057173993</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>0.42491800000000002</v>
       </c>
@@ -36056,7 +36002,7 @@
         <v>40.828765512885219</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>0.42623</v>
       </c>
@@ -36229,7 +36175,7 @@
         <v>40.718352140506646</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>0.42688500000000001</v>
       </c>
@@ -36402,7 +36348,7 @@
         <v>40.663419155467977</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>0.427541</v>
       </c>
@@ -36575,7 +36521,7 @@
         <v>40.608528213052956</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>0.42885200000000001</v>
       </c>
@@ -36748,7 +36694,7 @@
         <v>40.499205714110303</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>0.429508</v>
       </c>
@@ -36921,7 +36867,7 @@
         <v>40.444689860245006</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>0.43016399999999999</v>
       </c>
@@ -37094,7 +37040,7 @@
         <v>40.390298194070105</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>0.43081999999999998</v>
       </c>
@@ -37267,7 +37213,7 @@
         <v>40.336030266474062</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>0.43213099999999999</v>
       </c>
@@ -37440,7 +37386,7 @@
         <v>40.227946098743857</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>0.43344300000000002</v>
       </c>
@@ -37613,7 +37559,7 @@
         <v>40.120268922676068</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>0.43409799999999998</v>
       </c>
@@ -37786,7 +37732,7 @@
         <v>40.066694544572321</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>0.43541000000000002</v>
       </c>
@@ -37959,7 +37905,7 @@
         <v>39.959744858559048</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>0.43934400000000001</v>
       </c>
@@ -38132,7 +38078,7 @@
         <v>39.641928054914906</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>0.450492</v>
       </c>
@@ -38305,7 +38251,7 @@
         <v>38.764009690905226</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>0.454426</v>
       </c>
@@ -38478,7 +38424,7 @@
         <v>38.461944724786918</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>0.45639299999999999</v>
       </c>
@@ -38651,7 +38597,7 @@
         <v>38.312381747059511</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>0.45836100000000002</v>
       </c>
@@ -38824,7 +38770,7 @@
         <v>38.163709732400186</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>0.45901599999999998</v>
       </c>
@@ -38997,7 +38943,7 @@
         <v>38.114440762851267</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>0.45967200000000003</v>
       </c>
@@ -39170,7 +39116,7 @@
         <v>38.065202501582213</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>0.46032800000000001</v>
       </c>
@@ -39343,7 +39289,7 @@
         <v>38.016069888112661</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>0.460984</v>
       </c>
@@ -39516,7 +39462,7 @@
         <v>37.967042562869239</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>0.462951</v>
       </c>
@@ -39689,7 +39635,7 @@
         <v>37.820662925326751</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>0.46557399999999999</v>
       </c>
@@ -39862,7 +39808,7 @@
         <v>37.626916603837095</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>0.46819699999999997</v>
       </c>
@@ -40035,7 +39981,7 @@
         <v>37.434808623210294</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>0.47475400000000001</v>
       </c>
@@ -40208,7 +40154,7 @@
         <v>36.961599446474224</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>0.49311500000000003</v>
       </c>
@@ -40381,7 +40327,7 @@
         <v>35.68750070667604</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>0.50032799999999999</v>
       </c>
@@ -40554,7 +40500,7 @@
         <v>35.206472502584326</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>0.50885199999999997</v>
       </c>
@@ -40727,7 +40673,7 @@
         <v>34.651423550308373</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>0.51016399999999995</v>
       </c>
@@ -40900,7 +40846,7 @@
         <v>34.567246522556438</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>0.51147500000000001</v>
       </c>
@@ -41073,7 +41019,7 @@
         <v>34.483462250571371</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>0.51278699999999999</v>
       </c>
@@ -41246,7 +41192,7 @@
         <v>34.399940883625824</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>0.53245900000000002</v>
       </c>
@@ -41419,7 +41365,7 @@
         <v>33.185500602385957</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>0.53639300000000001</v>
       </c>
@@ -41592,7 +41538,7 @@
         <v>32.950836046829387</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>0.54032800000000003</v>
       </c>
@@ -41765,7 +41711,7 @@
         <v>32.718732593011438</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>0.54229499999999997</v>
       </c>
@@ -41938,7 +41884,7 @@
         <v>32.60367849016346</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>0.54295099999999996</v>
       </c>
@@ -42111,7 +42057,7 @@
         <v>32.565449714781245</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>0.54360699999999995</v>
       </c>
@@ -42284,7 +42230,7 @@
         <v>32.527291664013056</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>0.54819700000000005</v>
       </c>
@@ -42457,7 +42403,7 @@
         <v>32.262263038046029</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>0.54885200000000001</v>
       </c>
@@ -42630,7 +42576,7 @@
         <v>32.224720449312095</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>0.55278700000000003</v>
       </c>
@@ -42803,7 +42749,7 @@
         <v>32.000617075059502</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>0.55409799999999998</v>
       </c>
@@ -42976,7 +42922,7 @@
         <v>31.926497025489709</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>0.56065600000000004</v>
       </c>
@@ -43149,7 +43095,7 @@
         <v>31.559732574831536</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>0.56459000000000004</v>
       </c>
@@ -43322,7 +43268,7 @@
         <v>31.342867829440635</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>0.56655699999999998</v>
       </c>
@@ -43495,7 +43441,7 @@
         <v>31.23530520630338</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>0.56786899999999996</v>
       </c>
@@ -43668,7 +43614,7 @@
         <v>31.163879362902222</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>0.56918000000000002</v>
       </c>
@@ -43841,7 +43787,7 @@
         <v>31.092761295083662</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>0.57180299999999995</v>
       </c>
@@ -44014,7 +43960,7 @@
         <v>30.951225433608329</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>0.57442599999999999</v>
       </c>
@@ -44187,7 +44133,7 @@
         <v>30.810686374469157</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>0.57508199999999998</v>
       </c>
@@ -44360,7 +44306,7 @@
         <v>30.775692734111701</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0.57573799999999997</v>
       </c>
@@ -44533,7 +44479,7 @@
         <v>30.740760576224382</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>0.57639300000000004</v>
       </c>
@@ -44706,7 +44652,7 @@
         <v>30.705942840066605</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>0.57901599999999998</v>
       </c>
@@ -44879,7 +44825,7 @@
         <v>30.567121542567079</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>0.57967199999999997</v>
       </c>
@@ -45052,7 +44998,7 @@
         <v>30.532554528269578</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>0.58032799999999995</v>
       </c>
@@ -45225,7 +45171,7 @@
         <v>30.4980478139166</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>0.58098399999999994</v>
       </c>
@@ -45398,7 +45344,7 @@
         <v>30.463601233058974</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>0.58163900000000002</v>
       </c>
@@ -45571,7 +45517,7 @@
         <v>30.429266992941798</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>0.582951</v>
       </c>
@@ -45744,7 +45690,7 @@
         <v>30.360672827641686</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>0.58950800000000003</v>
       </c>
@@ -45917,7 +45863,7 @@
         <v>30.021398417988031</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>0.59868900000000003</v>
       </c>
@@ -46090,7 +46036,7 @@
         <v>29.556033251836368</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>0.61114800000000002</v>
       </c>
@@ -46263,7 +46209,7 @@
         <v>28.941894031443049</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>0.61901600000000001</v>
       </c>
@@ -46436,7 +46382,7 @@
         <v>28.563964732883704</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>0.62163900000000005</v>
       </c>
@@ -46609,7 +46555,7 @@
         <v>28.439625162627685</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>0.62688500000000003</v>
       </c>
@@ -46782,7 +46728,7 @@
         <v>28.193374463358346</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>0.63016399999999995</v>
       </c>
@@ -46955,7 +46901,7 @@
         <v>28.041076582047729</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>0.63344299999999998</v>
       </c>
@@ -47128,7 +47074,7 @@
         <v>27.890006244801739</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>0.63737699999999997</v>
       </c>
@@ -47301,7 +47247,7 @@
         <v>27.710356630045553</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>0.64721300000000004</v>
       </c>
@@ -47474,7 +47420,7 @@
         <v>27.268648582109066</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>0.65114799999999995</v>
       </c>
@@ -47647,7 +47593,7 @@
         <v>27.09485688243538</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>0.65508200000000005</v>
       </c>
@@ -47820,7 +47766,7 @@
         <v>26.922739456853492</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>0.68065600000000004</v>
       </c>
@@ -47993,7 +47939,7 @@
         <v>25.84196534484029</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>0.681311</v>
       </c>
@@ -48166,7 +48112,7 @@
         <v>25.815120667266854</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>0.68196699999999999</v>
       </c>
@@ -48339,7 +48285,7 @@
         <v>25.788275493705335</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>0.68262299999999998</v>
       </c>
@@ -48512,7 +48458,7 @@
         <v>25.761470742838846</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>0.68327899999999997</v>
       </c>
@@ -48685,7 +48631,7 @@
         <v>25.734706318492165</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>0.68393400000000004</v>
       </c>
@@ -48858,7 +48804,7 @@
         <v>25.708022832335288</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>0.68459000000000003</v>
       </c>
@@ -49031,7 +48977,7 @@
         <v>25.681338712646223</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>0.68524600000000002</v>
       </c>
@@ -49204,7 +49150,7 @@
         <v>25.654694632972102</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>0.68655699999999997</v>
       </c>
@@ -49377,7 +49323,7 @@
         <v>25.601566678315407</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>0.69114799999999998</v>
       </c>
@@ -49550,7 +49496,7 @@
         <v>25.416764241132043</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>0.69245900000000005</v>
       </c>
@@ -49723,7 +49669,7 @@
         <v>25.364345239996361</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>0.69377</v>
       </c>
@@ -49896,7 +49842,7 @@
         <v>25.312081687342392</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>0.70032799999999995</v>
       </c>
@@ -50069,7 +50015,7 @@
         <v>25.052952676523354</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>0.70426200000000005</v>
       </c>
@@ -50242,7 +50188,7 @@
         <v>24.899327543377581</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>0.71213099999999996</v>
       </c>
@@ -50415,7 +50361,7 @@
         <v>24.596047425157224</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>0.71672100000000005</v>
       </c>
@@ -50588,7 +50534,7 @@
         <v>24.421565344836161</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>0.71737700000000004</v>
       </c>
@@ -50761,7 +50707,7 @@
         <v>24.396771993768567</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>0.72065599999999996</v>
       </c>
@@ -50934,7 +50880,7 @@
         <v>24.273375860420138</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>0.72196700000000003</v>
       </c>
@@ -51107,7 +51053,7 @@
         <v>24.224286981936196</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>0.72262300000000002</v>
       </c>
@@ -51280,7 +51226,7 @@
         <v>24.199776465850327</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>0.72327900000000001</v>
       </c>
@@ -51453,7 +51399,7 @@
         <v>24.175300958660266</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>0.72393399999999997</v>
       </c>
@@ -51626,7 +51572,7 @@
         <v>24.150897611827759</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>0.72458999999999996</v>
       </c>
@@ -51799,7 +51745,7 @@
         <v>24.126491832687549</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>0.72524599999999995</v>
       </c>
@@ -51972,7 +51918,7 @@
         <v>24.102120826374929</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>0.73049200000000003</v>
       </c>
@@ -52145,7 +52091,7 @@
         <v>23.908468669205433</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>0.73114800000000002</v>
       </c>
@@ -52318,7 +52264,7 @@
         <v>23.884407022317653</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>0.73901600000000001</v>
       </c>
@@ -52491,7 +52437,7 @@
         <v>23.598441989132908</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>0.74229500000000004</v>
       </c>
@@ -52664,7 +52610,7 @@
         <v>23.480678965174697</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>0.74491799999999997</v>
       </c>
@@ -52837,7 +52783,7 @@
         <v>23.387065117222058</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>0.74557399999999996</v>
       </c>
@@ -53010,7 +52956,7 @@
         <v>23.363734027115697</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>0.74885199999999996</v>
       </c>
@@ -53183,7 +53129,7 @@
         <v>23.24763352580964</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>0.74950799999999995</v>
       </c>
@@ -53356,7 +53302,7 @@
         <v>23.224495587516671</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>0.75737699999999997</v>
       </c>
@@ -53529,7 +53475,7 @@
         <v>22.949417622263468</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>0.760656</v>
       </c>
@@ -53702,7 +53648,7 @@
         <v>22.83612237876568</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>0.763934</v>
       </c>
@@ -53875,7 +53821,7 @@
         <v>22.723631015708193</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>0.77114799999999994</v>
       </c>
@@ -54048,7 +53994,7 @@
         <v>22.478736430698689</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>0.77180300000000002</v>
       </c>
@@ -54221,7 +54167,7 @@
         <v>22.456680606845474</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>0.773115</v>
       </c>
@@ -54394,7 +54340,7 @@
         <v>22.412590620911786</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>0.77442599999999995</v>
       </c>
@@ -54567,7 +54513,7 @@
         <v>22.368652423101111</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>0.77508200000000005</v>
       </c>
@@ -54740,7 +54686,7 @@
         <v>22.346710756970076</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>0.77836099999999997</v>
       </c>
@@ -54913,7 +54859,7 @@
         <v>22.237475269004371</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>0.77967200000000003</v>
       </c>
@@ -55086,7 +55032,7 @@
         <v>22.194004831264955</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>0.78032800000000002</v>
       </c>
@@ -55259,7 +55205,7 @@
         <v>22.172296483093739</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>0.78295099999999995</v>
       </c>
@@ -55432,7 +55378,7 @@
         <v>22.085784378875431</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>0.78426200000000001</v>
       </c>
@@ -55605,7 +55551,7 @@
         <v>22.042716790164846</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>0.784918</v>
       </c>
@@ -55778,7 +55724,7 @@
         <v>22.021209386146637</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>0.78950799999999999</v>
       </c>
@@ -55951,7 +55897,7 @@
         <v>21.871516567168293</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>0.79409799999999997</v>
       </c>
@@ -56124,7 +56070,7 @@
         <v>21.723197811020533</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>0.80655699999999997</v>
       </c>
@@ -56297,7 +56243,7 @@
         <v>21.327375631452789</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>0.81114799999999998</v>
       </c>
@@ -56470,7 +56416,7 @@
         <v>21.183959123520467</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>0.81245900000000004</v>
       </c>
@@ -56643,7 +56589,7 @@
         <v>21.143241866077545</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>0.82295099999999999</v>
       </c>
@@ -56816,7 +56762,7 @@
         <v>20.821102641704861</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>0.82491800000000004</v>
       </c>
@@ -56989,7 +56935,7 @@
         <v>20.761435681816884</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>0.82557400000000003</v>
       </c>
@@ -57162,7 +57108,7 @@
         <v>20.741586911912783</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>0.83213099999999995</v>
       </c>
@@ -57335,7 +57281,7 @@
         <v>20.544560524918246</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>0.83934399999999998</v>
       </c>
@@ -57508,7 +57454,7 @@
         <v>20.330659150333538</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>0.84262300000000001</v>
       </c>
@@ -57681,7 +57627,7 @@
         <v>20.234386333491301</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>0.84458999999999995</v>
       </c>
@@ -57854,7 +57800,7 @@
         <v>20.176920500052539</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>0.85180299999999998</v>
       </c>
@@ -58027,7 +57973,7 @@
         <v>19.96800636148965</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>0.85311499999999996</v>
       </c>
@@ -58200,7 +58146,7 @@
         <v>19.930309319798546</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>0.855738</v>
       </c>
@@ -58373,7 +58319,7 @@
         <v>19.855220653917655</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>0.859016</v>
       </c>
@@ -58546,7 +58492,7 @@
         <v>19.761896166321137</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>0.86360700000000001</v>
       </c>
@@ -58719,7 +58665,7 @@
         <v>19.632142412011504</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>0.86426199999999997</v>
       </c>
@@ -58892,7 +58838,7 @@
         <v>19.613720162537241</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>0.87278699999999998</v>
       </c>
@@ -59065,7 +59011,7 @@
         <v>19.3759672007942</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>0.87606600000000001</v>
       </c>
@@ -59238,7 +59184,7 @@
         <v>19.285505343889</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>0.87737699999999996</v>
       </c>
@@ -59411,7 +59357,7 @@
         <v>19.249488499753454</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>0.87868900000000005</v>
       </c>
@@ -59584,7 +59530,7 @@
         <v>19.213530247456021</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>0.87934400000000001</v>
       </c>
@@ -59757,7 +59703,7 @@
         <v>19.195610648375357</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>0.88065599999999999</v>
       </c>
@@ -59930,7 +59876,7 @@
         <v>19.159780870060061</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>0.883934</v>
       </c>
@@ -60103,7 +60049,7 @@
         <v>19.070633101326784</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>0.88917999999999997</v>
       </c>
@@ -60276,7 +60222,7 @@
         <v>18.929059491251827</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>0.91081999999999996</v>
       </c>
@@ -60449,7 +60395,7 @@
         <v>18.358915699997425</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>0.91278700000000002</v>
       </c>
@@ -60622,7 +60568,7 @@
         <v>18.308167815321276</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>0.91672100000000001</v>
       </c>
@@ -60795,7 +60741,7 @@
         <v>18.207196417901997</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>0.92</v>
       </c>
@@ -60968,7 +60914,7 @@
         <v>18.123566215055149</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>0.92065600000000003</v>
       </c>
@@ -61141,7 +61087,7 @@
         <v>18.106892473018661</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>0.92131099999999999</v>
       </c>
@@ -61314,7 +61260,7 @@
         <v>18.090263162252015</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>0.92459000000000002</v>
       </c>
@@ -61487,7 +61433,7 @@
         <v>18.007299488548099</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>0.92655699999999996</v>
       </c>
@@ -61660,7 +61606,7 @@
         <v>17.957757710164977</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>0.93049199999999999</v>
       </c>
@@ -61833,7 +61779,7 @@
         <v>17.85915405812046</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>0.93311500000000003</v>
       </c>
@@ -62006,7 +61952,7 @@
         <v>17.793797861016365</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>0.93442599999999998</v>
       </c>
@@ -62179,7 +62125,7 @@
         <v>17.76124272902242</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>0.93508199999999997</v>
       </c>
@@ -62352,7 +62298,7 @@
         <v>17.744980280337032</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>0.93639300000000003</v>
       </c>
@@ -62525,7 +62471,7 @@
         <v>17.712535035440546</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>0.93967199999999995</v>
       </c>
@@ -62698,7 +62644,7 @@
         <v>17.631703488184819</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>0.94557400000000003</v>
       </c>
@@ -62871,7 +62817,7 @@
         <v>17.487348224602563</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>0.94819699999999996</v>
       </c>
@@ -63044,7 +62990,7 @@
         <v>17.423657144628571</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>0.95082</v>
       </c>
@@ -63217,7 +63163,7 @@
         <v>17.360248821262317</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>0.95344300000000004</v>
       </c>
@@ -63390,7 +63336,7 @@
         <v>17.297121279621663</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>0.954098</v>
       </c>
@@ -63563,7 +63509,7 @@
         <v>17.281401027056063</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>0.95606599999999997</v>
       </c>
@@ -63736,7 +63682,7 @@
         <v>17.23427256365553</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>0.95737700000000003</v>
       </c>
@@ -63909,7 +63855,7 @@
         <v>17.202964086648251</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>0.95934399999999997</v>
       </c>
@@ -64082,7 +64028,7 @@
         <v>17.156118649742325</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>0.96458999999999995</v>
       </c>
@@ -64255,7 +64201,7 @@
         <v>17.031934261659096</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>0.96721299999999999</v>
       </c>
@@ -64428,7 +64374,7 @@
         <v>16.970249083651282</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>0.96918000000000004</v>
       </c>
@@ -64601,7 +64547,7 @@
         <v>16.924167585905032</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>0.97114800000000001</v>
       </c>
@@ -64774,7 +64720,7 @@
         <v>16.87821319042461</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>0.97311499999999995</v>
       </c>
@@ -64947,7 +64893,7 @@
         <v>16.832431825683663</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>0.975082</v>
       </c>
@@ -65120,7 +65066,7 @@
         <v>16.786799335307698</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>0.97770500000000005</v>
       </c>
@@ -65293,7 +65239,7 @@
         <v>16.726178593765511</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>0.98098399999999997</v>
       </c>
@@ -65466,7 +65412,7 @@
         <v>16.650764579643386</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>0.98295100000000002</v>
       </c>
@@ -65639,7 +65585,7 @@
         <v>16.605720093542608</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>0.98426199999999997</v>
       </c>
@@ -65812,7 +65758,7 @@
         <v>16.575778706743847</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>0.98491799999999996</v>
       </c>
@@ -65985,7 +65931,7 @@
         <v>16.560820724144904</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>0.98557399999999995</v>
       </c>
@@ -66158,7 +66104,7 @@
         <v>16.545878800137217</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>0.98623000000000005</v>
       </c>
@@ -66331,7 +66277,7 @@
         <v>16.530952907552141</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>0.98688500000000001</v>
       </c>
@@ -66504,7 +66450,7 @@
         <v>16.516065735605991</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>0.987541</v>
       </c>
@@ -66677,7 +66623,7 @@
         <v>16.501171800276381</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>0.98819699999999999</v>
       </c>
@@ -66850,7 +66796,7 @@
         <v>16.486293815280924</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>0.98885199999999995</v>
       </c>
@@ -67023,7 +66969,7 @@
         <v>16.471454397178292</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>0.991475</v>
       </c>
@@ -67196,7 +67142,7 @@
         <v>16.412187299125264</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>0.99213099999999999</v>
       </c>
@@ -67369,7 +67315,7 @@
         <v>16.397404404917474</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>0.99278699999999998</v>
       </c>
@@ -67542,7 +67488,7 @@
         <v>16.382637273994256</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>0.99344299999999996</v>
       </c>
@@ -67715,7 +67661,7 @@
         <v>16.367885879868147</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>0.99409800000000004</v>
       </c>
@@ -67888,7 +67834,7 @@
         <v>16.353172647102326</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>0.99475400000000003</v>
       </c>
@@ -68061,7 +68007,7 @@
         <v>16.338452623462757</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>0.99541000000000002</v>
       </c>
@@ -68234,7 +68180,7 @@
         <v>16.3237482575624</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>0.99672099999999997</v>
       </c>
@@ -68407,7 +68353,7 @@
         <v>16.294408749770774</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>0.99737699999999996</v>
       </c>

--- a/Raw_data_cleaned/Burley/Burley21.xlsx
+++ b/Raw_data_cleaned/Burley/Burley21.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7F5762-145D-664D-B650-F490468E2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{835FA037-E347-4FD9-8A8B-ACBABB639536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8360" yWindow="2250" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="32" workbookViewId="0">
-      <selection sqref="A1:BE394"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="I399" sqref="I399"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3.934E-3</v>
       </c>
@@ -710,7 +710,7 @@
         <v>260.90418471110615</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4.5900000000000003E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>257.22582145092616</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.2459999999999998E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>253.75645972915311</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5.9020000000000001E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>250.46725322203196</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6.5570000000000003E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>247.34064997058914</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>9.8359999999999993E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>233.53850286248218</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.0492E-2</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>231.07498918964779</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1.1148E-2</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>228.6931662647024</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1.1802999999999999E-2</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>226.3908253731538</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.2459E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>224.15591944509424</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1.3115E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>221.98753887535111</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1.3769999999999999E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>219.88482742440664</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.4426E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>217.83774235562166</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1.7704999999999999E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>208.38282237049609</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1.8360999999999999E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>206.6290990798951</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1.9016000000000002E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>204.91892139818393</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2.2294999999999999E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>196.91194476961545</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2.9508E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>181.90997300593963</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3.082E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>179.49135132965583</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3.4098000000000003E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>173.7910496716527</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3.5409999999999997E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>171.63498932142753</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3.6720999999999997E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>169.54631665860219</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3.8032999999999997E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>167.51834984101509</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.04</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>164.58772778772627</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4.0655999999999998E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>163.6381701207699</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>4.1966999999999997E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>161.78013755147742</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>4.2623000000000001E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>160.86960570188927</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>4.3278999999999998E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>159.97146808243201</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4.3934000000000001E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>159.08677388429831</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4.5246000000000001E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>157.34985320304699</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4.6557000000000001E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>155.65935026454466</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4.7212999999999998E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>154.82974424765479</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4.7869000000000002E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>154.01068385963353</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4.8524999999999999E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>153.20193869542541</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4.9180000000000001E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>152.40449559867568</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4.9835999999999998E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>151.61570389812718</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>5.1147999999999999E-2</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>150.06691942619034</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>5.1803000000000002E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>149.3076794429528</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>5.2458999999999999E-2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>148.55635078842141</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>5.5081999999999999E-2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>145.63927937481708</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>5.6392999999999999E-2</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>144.23114444413315</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>5.7704999999999999E-2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>142.85349205921162</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>5.8361000000000003E-2</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>142.17612979444192</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>5.9015999999999999E-2</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>141.50723427222715</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>5.9672000000000003E-2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>140.84462450074341</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>6.1638999999999999E-2</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>138.90031125409166</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>6.6229999999999997E-2</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>134.59451280816197</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>6.6885E-2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>134.00504137429022</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>6.7541000000000004E-2</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>133.42057050258191</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>6.8196999999999994E-2</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>132.84190557981006</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>6.8851999999999997E-2</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>132.26981898311172</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>6.9508E-2</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>131.70246957878567</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>7.0819999999999994E-2</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>130.58424899340113</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>7.2131000000000001E-2</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>129.48823773199587</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>7.3442999999999994E-2</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>128.41208493147258</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>7.5410000000000005E-2</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>126.83605218095919</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7.8033000000000005E-2</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>124.80099761350924</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8.0656000000000005E-2</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>122.83791590066777</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>8.1310999999999994E-2</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>122.35844279128737</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>8.7869000000000003E-2</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>117.77794509941232</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>8.9179999999999995E-2</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>116.90741587351788</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>9.4425999999999996E-2</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>113.56134684655156</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>9.8361000000000004E-2</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>111.18599155080838</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.11475399999999999</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>102.34781717859751</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.120656</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>99.522813706136262</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.12590199999999999</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>97.147253013686921</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.12786900000000001</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>96.287145416447814</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.12917999999999999</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>95.722751793020294</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.13442599999999999</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>93.532256675508933</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.13508200000000001</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>93.265713446761978</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.13770499999999999</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>92.215642665796977</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.139016</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>91.700009989025887</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.14163899999999999</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>90.686186557116557</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.14295099999999999</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>90.187783023006574</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.14360700000000001</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>89.940710042558734</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.144262</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>89.695412201231463</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.14491799999999999</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>89.451127608087901</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.14623</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>88.966674065188542</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.15278700000000001</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>86.624603185960282</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.15409800000000001</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>86.171495061437426</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.154754</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>85.946593239960549</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.16983599999999999</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>81.087921853128222</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.170492</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>80.889246743449704</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.172459</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>80.299393328503641</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.17377000000000001</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>79.911068678634749</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.174426</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>79.718179974102028</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.17508199999999999</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>79.526229610895129</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.17573800000000001</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>79.335210221665221</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.17639299999999999</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>79.1454036003054</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.17704900000000001</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>78.956222986226862</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.177705</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>78.767951733382944</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.17836099999999999</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>78.580582789595169</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.179672</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>78.208806231441159</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.18098400000000001</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>77.840271266795128</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.18229500000000001</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>77.475486027752552</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.182951</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>77.294239450029693</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.18426200000000001</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>76.934558657680668</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.186885</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>76.224894125086223</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.188197</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>75.874816736520486</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.18950800000000001</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>75.528199316677956</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.190164</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>75.355941921020332</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.19147500000000001</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>75.014026129154644</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.19541</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>74.006056606916673</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.19803299999999999</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>73.348977008048678</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.20196700000000001</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>72.384868864687164</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.202623</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>72.226534997097389</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.20524600000000001</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>71.600213392123408</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.205902</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>71.445243770628807</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.20983599999999999</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>70.529573195114352</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.211148</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>70.229301499341389</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.21376999999999999</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>69.636665424749665</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.22098400000000001</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>68.055485005459303</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.239344</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>64.329364870024264</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.24393400000000001</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>63.458563138031188</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.24721299999999999</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>62.850184181475463</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.24786900000000001</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>62.729807330335682</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.24918000000000001</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>62.490551015496742</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.25049199999999999</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>62.252848605449763</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.25114799999999998</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>62.13464249842783</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.251803</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>62.017042353492407</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.25311499999999998</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>61.782752727963548</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.25442599999999999</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>61.550317415839935</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.25508199999999998</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>61.434633910841931</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.25639299999999998</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>61.204676070493726</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.25836100000000001</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>60.862526268288583</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.260328</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>60.524153797043191</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.26163900000000001</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>60.300600292625354</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.26360699999999998</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>59.967929657367627</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.264262</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>59.857976058070768</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.26557399999999998</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>59.638873334356866</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.27409800000000001</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>58.25135095772827</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.27672099999999999</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>57.836504846459597</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.27868900000000002</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>57.528864630549641</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.27934399999999998</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>57.427151535992628</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.28917999999999999</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>55.939100531502795</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.29049199999999997</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>55.746019453708008</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.29245900000000002</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>55.458848125368569</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.29311500000000001</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>55.363683873564831</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.29376999999999998</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>55.268965641230402</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.297705</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>54.706178671062524</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.299016</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>54.521020879620046</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.30032799999999998</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>54.336874569698459</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.30163899999999999</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>54.154009040702043</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.30229499999999998</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>54.062930938447714</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.30295100000000003</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>53.972134054414987</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.30557400000000001</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>53.611867640987022</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.30688500000000002</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>53.433452756843586</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.30950800000000001</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>53.079734136799566</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.310164</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>52.991940035350289</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.31278699999999998</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>52.643534960770161</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.31409799999999999</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>52.470962761204937</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.31672099999999997</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>52.128766232963891</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.31803300000000001</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>51.959124030045068</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.32</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>51.70666374262057</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.320656</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>51.622962708848</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.321967</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>51.456423396429209</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.32327899999999998</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>51.290730515218165</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.32458999999999999</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>51.126127607319212</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.32524599999999998</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>51.04412219135704</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.32590200000000003</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>50.96235463028551</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.32655699999999999</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>50.880947929821268</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.32786900000000002</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>50.718591507106488</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.32917999999999997</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>50.557291775658562</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.33049200000000001</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>50.396794122566867</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.331148</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>50.316889705353368</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.33180300000000001</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>50.237334783350626</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.33311499999999999</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>50.07866216601294</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.33377000000000001</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>49.999784298075234</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.334426</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>49.921009933673055</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.33508199999999999</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>49.84245865567339</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.33573799999999998</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>49.764129457700257</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.336393</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>49.68614023914278</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.33901599999999998</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>49.376015019767401</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.34229500000000002</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>48.99318270870581</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.34426200000000001</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>48.766072360500381</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.34622999999999998</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>48.540723786433098</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.34819699999999998</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>48.31734140100675</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.35016399999999998</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>48.095786077908869</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.35082000000000002</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>48.022298916366026</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.35344300000000001</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>47.730449354943985</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.35475400000000001</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>47.585759798598112</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.35606599999999999</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>47.441737979622729</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.35672100000000001</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>47.370126074312211</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.35868899999999998</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>47.156111339470733</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.37114799999999998</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>45.839966767392859</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.380328</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>44.910938339143286</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.38295099999999999</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>44.65151977279185</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.39147500000000002</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>43.82624313979214</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.39344299999999999</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>43.639463661876128</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.394098</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>43.577604522106355</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.39803300000000003</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>43.209150450859831</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.40065600000000001</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>42.966524737862798</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.403279</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>42.72623945788601</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.40393400000000002</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>42.666597838000527</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.40459000000000001</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>42.60700865281116</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.405246</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>42.547562519487329</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.40917999999999999</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>42.194037899127807</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.41049200000000002</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>42.077256043631415</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.41245900000000002</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>41.90320697121836</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.41377000000000003</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>41.787887135174955</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.419016</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>41.331813932931418</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.41967199999999999</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>41.275380608907852</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.42163899999999999</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>41.106951227427139</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.42426199999999997</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>40.884163057173993</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.42491800000000002</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>40.828765512885219</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.42623</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>40.718352140506646</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.42688500000000001</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>40.663419155467977</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.427541</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>40.608528213052956</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.42885200000000001</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>40.499205714110303</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.429508</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>40.444689860245006</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.43016399999999999</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>40.390298194070105</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.43081999999999998</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>40.336030266474062</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.43213099999999999</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>40.227946098743857</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.43344300000000002</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>40.120268922676068</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.43409799999999998</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>40.066694544572321</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.43541000000000002</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>39.959744858559048</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.43934400000000001</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>39.641928054914906</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.450492</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>38.764009690905226</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.454426</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>38.461944724786918</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.45639299999999999</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>38.312381747059511</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.45836100000000002</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>38.163709732400186</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.45901599999999998</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>38.114440762851267</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.45967200000000003</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>38.065202501582213</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.46032800000000001</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>38.016069888112661</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.460984</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>37.967042562869239</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.462951</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>37.820662925326751</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.46557399999999999</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>37.626916603837095</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.46819699999999997</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>37.434808623210294</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.47475400000000001</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>36.961599446474224</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.49311500000000003</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>35.68750070667604</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.50032799999999999</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>35.206472502584326</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.50885199999999997</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>34.651423550308373</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.51016399999999995</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>34.567246522556438</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.51147500000000001</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>34.483462250571371</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.51278699999999999</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>34.399940883625824</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.53245900000000002</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>33.185500602385957</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.53639300000000001</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>32.950836046829387</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.54032800000000003</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>32.718732593011438</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.54229499999999997</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>32.60367849016346</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.54295099999999996</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>32.565449714781245</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.54360699999999995</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>32.527291664013056</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.54819700000000005</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>32.262263038046029</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.54885200000000001</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>32.224720449312095</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.55278700000000003</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>32.000617075059502</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.55409799999999998</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>31.926497025489709</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.56065600000000004</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>31.559732574831536</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.56459000000000004</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>31.342867829440635</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.56655699999999998</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>31.23530520630338</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.56786899999999996</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>31.163879362902222</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.56918000000000002</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>31.092761295083662</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.57180299999999995</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>30.951225433608329</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.57442599999999999</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>30.810686374469157</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.57508199999999998</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>30.775692734111701</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.57573799999999997</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>30.740760576224382</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.57639300000000004</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>30.705942840066605</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.57901599999999998</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>30.567121542567079</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.57967199999999997</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>30.532554528269578</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.58032799999999995</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>30.4980478139166</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.58098399999999994</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>30.463601233058974</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.58163900000000002</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>30.429266992941798</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.582951</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>30.360672827641686</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.58950800000000003</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>30.021398417988031</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.59868900000000003</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>29.556033251836368</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.61114800000000002</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>28.941894031443049</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.61901600000000001</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>28.563964732883704</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.62163900000000005</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>28.439625162627685</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.62688500000000003</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>28.193374463358346</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.63016399999999995</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>28.041076582047729</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.63344299999999998</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>27.890006244801739</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.63737699999999997</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>27.710356630045553</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.64721300000000004</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>27.268648582109066</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.65114799999999995</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>27.09485688243538</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.65508200000000005</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>26.922739456853492</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.68065600000000004</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>25.84196534484029</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.681311</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>25.815120667266854</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.68196699999999999</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>25.788275493705335</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.68262299999999998</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>25.761470742838846</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.68327899999999997</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>25.734706318492165</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.68393400000000004</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>25.708022832335288</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.68459000000000003</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>25.681338712646223</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.68524600000000002</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>25.654694632972102</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.68655699999999997</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>25.601566678315407</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.69114799999999998</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>25.416764241132043</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.69245900000000005</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>25.364345239996361</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.69377</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>25.312081687342392</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.70032799999999995</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>25.052952676523354</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.70426200000000005</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>24.899327543377581</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.71213099999999996</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>24.596047425157224</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.71672100000000005</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>24.421565344836161</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.71737700000000004</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>24.396771993768567</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.72065599999999996</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>24.273375860420138</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.72196700000000003</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>24.224286981936196</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.72262300000000002</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>24.199776465850327</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.72327900000000001</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>24.175300958660266</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.72393399999999997</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>24.150897611827759</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.72458999999999996</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>24.126491832687549</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.72524599999999995</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>24.102120826374929</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.73049200000000003</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>23.908468669205433</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.73114800000000002</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>23.884407022317653</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.73901600000000001</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>23.598441989132908</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.74229500000000004</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>23.480678965174697</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.74491799999999997</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>23.387065117222058</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.74557399999999996</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>23.363734027115697</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.74885199999999996</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>23.24763352580964</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.74950799999999995</v>
       </c>
@@ -53302,7 +53302,7 @@
         <v>23.224495587516671</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.75737699999999997</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>22.949417622263468</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.760656</v>
       </c>
@@ -53648,7 +53648,7 @@
         <v>22.83612237876568</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.763934</v>
       </c>
@@ -53821,7 +53821,7 @@
         <v>22.723631015708193</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.77114799999999994</v>
       </c>
@@ -53994,7 +53994,7 @@
         <v>22.478736430698689</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.77180300000000002</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>22.456680606845474</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.773115</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>22.412590620911786</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>0.77442599999999995</v>
       </c>
@@ -54513,7 +54513,7 @@
         <v>22.368652423101111</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>0.77508200000000005</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>22.346710756970076</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>0.77836099999999997</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>22.237475269004371</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>0.77967200000000003</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>22.194004831264955</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>0.78032800000000002</v>
       </c>
@@ -55205,7 +55205,7 @@
         <v>22.172296483093739</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>0.78295099999999995</v>
       </c>
@@ -55378,7 +55378,7 @@
         <v>22.085784378875431</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>0.78426200000000001</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>22.042716790164846</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>0.784918</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>22.021209386146637</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>0.78950799999999999</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>21.871516567168293</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>0.79409799999999997</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>21.723197811020533</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>0.80655699999999997</v>
       </c>
@@ -56243,7 +56243,7 @@
         <v>21.327375631452789</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>0.81114799999999998</v>
       </c>
@@ -56416,7 +56416,7 @@
         <v>21.183959123520467</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>0.81245900000000004</v>
       </c>
@@ -56589,7 +56589,7 @@
         <v>21.143241866077545</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>0.82295099999999999</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>20.821102641704861</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>0.82491800000000004</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>20.761435681816884</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>0.82557400000000003</v>
       </c>
@@ -57108,7 +57108,7 @@
         <v>20.741586911912783</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>0.83213099999999995</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>20.544560524918246</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>0.83934399999999998</v>
       </c>
@@ -57454,7 +57454,7 @@
         <v>20.330659150333538</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>0.84262300000000001</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>20.234386333491301</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>0.84458999999999995</v>
       </c>
@@ -57800,7 +57800,7 @@
         <v>20.176920500052539</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>0.85180299999999998</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>19.96800636148965</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>0.85311499999999996</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>19.930309319798546</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>0.855738</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>19.855220653917655</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>0.859016</v>
       </c>
@@ -58492,7 +58492,7 @@
         <v>19.761896166321137</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>0.86360700000000001</v>
       </c>
@@ -58665,7 +58665,7 @@
         <v>19.632142412011504</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>0.86426199999999997</v>
       </c>
@@ -58838,7 +58838,7 @@
         <v>19.613720162537241</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>0.87278699999999998</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>19.3759672007942</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>0.87606600000000001</v>
       </c>
@@ -59184,7 +59184,7 @@
         <v>19.285505343889</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>0.87737699999999996</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v>19.249488499753454</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>0.87868900000000005</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>19.213530247456021</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>0.87934400000000001</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>19.195610648375357</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>0.88065599999999999</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>19.159780870060061</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>0.883934</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>19.070633101326784</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>0.88917999999999997</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>18.929059491251827</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>0.91081999999999996</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>18.358915699997425</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>0.91278700000000002</v>
       </c>
@@ -60568,7 +60568,7 @@
         <v>18.308167815321276</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>0.91672100000000001</v>
       </c>
@@ -60741,7 +60741,7 @@
         <v>18.207196417901997</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>0.92</v>
       </c>
@@ -60914,7 +60914,7 @@
         <v>18.123566215055149</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>0.92065600000000003</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>18.106892473018661</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>0.92131099999999999</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>18.090263162252015</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>0.92459000000000002</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>18.007299488548099</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>0.92655699999999996</v>
       </c>
@@ -61606,7 +61606,7 @@
         <v>17.957757710164977</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>0.93049199999999999</v>
       </c>
@@ -61779,7 +61779,7 @@
         <v>17.85915405812046</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>0.93311500000000003</v>
       </c>
@@ -61952,7 +61952,7 @@
         <v>17.793797861016365</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>0.93442599999999998</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>17.76124272902242</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>0.93508199999999997</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>17.744980280337032</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>0.93639300000000003</v>
       </c>
@@ -62471,7 +62471,7 @@
         <v>17.712535035440546</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>0.93967199999999995</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>17.631703488184819</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>0.94557400000000003</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>17.487348224602563</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>0.94819699999999996</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>17.423657144628571</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>0.95082</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>17.360248821262317</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>0.95344300000000004</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>17.297121279621663</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>0.954098</v>
       </c>
@@ -63509,7 +63509,7 @@
         <v>17.281401027056063</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>0.95606599999999997</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>17.23427256365553</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>0.95737700000000003</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>17.202964086648251</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>0.95934399999999997</v>
       </c>
@@ -64028,7 +64028,7 @@
         <v>17.156118649742325</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>0.96458999999999995</v>
       </c>
@@ -64201,7 +64201,7 @@
         <v>17.031934261659096</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>0.96721299999999999</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>16.970249083651282</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>0.96918000000000004</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>16.924167585905032</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>0.97114800000000001</v>
       </c>
@@ -64720,7 +64720,7 @@
         <v>16.87821319042461</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>0.97311499999999995</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>16.832431825683663</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>0.975082</v>
       </c>
@@ -65066,7 +65066,7 @@
         <v>16.786799335307698</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>0.97770500000000005</v>
       </c>
@@ -65239,7 +65239,7 @@
         <v>16.726178593765511</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>0.98098399999999997</v>
       </c>
@@ -65412,7 +65412,7 @@
         <v>16.650764579643386</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>0.98295100000000002</v>
       </c>
@@ -65585,7 +65585,7 @@
         <v>16.605720093542608</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>0.98426199999999997</v>
       </c>
@@ -65758,7 +65758,7 @@
         <v>16.575778706743847</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>0.98491799999999996</v>
       </c>
@@ -65931,7 +65931,7 @@
         <v>16.560820724144904</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>0.98557399999999995</v>
       </c>
@@ -66104,7 +66104,7 @@
         <v>16.545878800137217</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>0.98623000000000005</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>16.530952907552141</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>0.98688500000000001</v>
       </c>
@@ -66450,7 +66450,7 @@
         <v>16.516065735605991</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>0.987541</v>
       </c>
@@ -66623,7 +66623,7 @@
         <v>16.501171800276381</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>0.98819699999999999</v>
       </c>
@@ -66796,7 +66796,7 @@
         <v>16.486293815280924</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>0.98885199999999995</v>
       </c>
@@ -66969,7 +66969,7 @@
         <v>16.471454397178292</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>0.991475</v>
       </c>
@@ -67142,7 +67142,7 @@
         <v>16.412187299125264</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>0.99213099999999999</v>
       </c>
@@ -67315,7 +67315,7 @@
         <v>16.397404404917474</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>0.99278699999999998</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>16.382637273994256</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>0.99344299999999996</v>
       </c>
@@ -67661,7 +67661,7 @@
         <v>16.367885879868147</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>0.99409800000000004</v>
       </c>
@@ -67834,7 +67834,7 @@
         <v>16.353172647102326</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>0.99475400000000003</v>
       </c>
@@ -68007,7 +68007,7 @@
         <v>16.338452623462757</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>0.99541000000000002</v>
       </c>
@@ -68180,7 +68180,7 @@
         <v>16.3237482575624</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>0.99672099999999997</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>16.294408749770774</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>0.99737699999999996</v>
       </c>
